--- a/UnitTests/Interpolator/Results by hand.xlsx
+++ b/UnitTests/Interpolator/Results by hand.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\OneDrive\2018KraetzAndreaSULISummer2018\Programs\180606MSRESOLVE\MSRESOLVE34.9\180702Interpolater\3.1\180706InterpolatorTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\OneDrive\2018KraetzAndreaSULISummer2018\Programs\180606MSRESOLVE\MSRESOLVE34.9\180702Interpolater\3.3\180711InterpolatorTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4245" windowHeight="12030" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Example Set</t>
   </si>
@@ -92,6 +93,15 @@
   <si>
     <t xml:space="preserve">Scatch work </t>
   </si>
+  <si>
+    <t>Test 3 is Test 2 with the SuperfluousRowCleanup</t>
+  </si>
+  <si>
+    <t>Before Cleanup</t>
+  </si>
+  <si>
+    <t>AfterCleanup</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +112,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +127,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +145,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -140,19 +162,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -468,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -1425,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5358,4 +5383,2188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>10.0001</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="4">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D6">
+        <v>-4.999883333333333</v>
+      </c>
+      <c r="E6">
+        <v>-1.9998666666666667</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10.0001</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="4">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J6">
+        <v>-4.999883333333333</v>
+      </c>
+      <c r="K6">
+        <v>-1.9998666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10.0002</v>
+      </c>
+      <c r="C7">
+        <v>1E-4</v>
+      </c>
+      <c r="D7">
+        <v>-4.9997666666666669</v>
+      </c>
+      <c r="E7">
+        <v>-1.9997333333333336</v>
+      </c>
+      <c r="G7">
+        <v>10.0002</v>
+      </c>
+      <c r="I7">
+        <v>1E-4</v>
+      </c>
+      <c r="J7">
+        <v>-4.9997666666666669</v>
+      </c>
+      <c r="K7">
+        <v>-1.9997333333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10.000399999999999</v>
+      </c>
+      <c r="C8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D8">
+        <v>-4.9995333333333338</v>
+      </c>
+      <c r="E8">
+        <v>-1.9994666666666676</v>
+      </c>
+      <c r="G8">
+        <v>10.000399999999999</v>
+      </c>
+      <c r="I8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J8">
+        <v>-4.9995333333333338</v>
+      </c>
+      <c r="K8">
+        <v>-1.9994666666666676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10.0008</v>
+      </c>
+      <c r="C9">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D9">
+        <v>-4.9990666666666659</v>
+      </c>
+      <c r="E9">
+        <v>-1.9989333333333332</v>
+      </c>
+      <c r="G9">
+        <v>10.0008</v>
+      </c>
+      <c r="I9">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J9">
+        <v>-4.9990666666666659</v>
+      </c>
+      <c r="K9">
+        <v>-1.9989333333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10.0016</v>
+      </c>
+      <c r="C10">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D10">
+        <v>-4.9981333333333327</v>
+      </c>
+      <c r="E10">
+        <v>-1.9978666666666667</v>
+      </c>
+      <c r="G10">
+        <v>10.0016</v>
+      </c>
+      <c r="I10">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J10">
+        <v>-4.9981333333333327</v>
+      </c>
+      <c r="K10">
+        <v>-1.9978666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10.0032</v>
+      </c>
+      <c r="C11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D11">
+        <v>-4.9962666666666662</v>
+      </c>
+      <c r="E11">
+        <v>-1.9957333333333336</v>
+      </c>
+      <c r="G11">
+        <v>10.0032</v>
+      </c>
+      <c r="I11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="J11">
+        <v>-4.9962666666666662</v>
+      </c>
+      <c r="K11">
+        <v>-1.9957333333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10.006399999999999</v>
+      </c>
+      <c r="C12">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D12">
+        <v>-4.9925333333333333</v>
+      </c>
+      <c r="E12">
+        <v>-1.9914666666666674</v>
+      </c>
+      <c r="G12">
+        <v>10.006399999999999</v>
+      </c>
+      <c r="I12">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="J12">
+        <v>-4.9925333333333333</v>
+      </c>
+      <c r="K12">
+        <v>-1.9914666666666674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10.0128</v>
+      </c>
+      <c r="C13">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="D13">
+        <v>-4.9850666666666656</v>
+      </c>
+      <c r="E13">
+        <v>-1.9829333333333325</v>
+      </c>
+      <c r="G13">
+        <v>10.0128</v>
+      </c>
+      <c r="I13">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="J13">
+        <v>-4.9850666666666656</v>
+      </c>
+      <c r="K13">
+        <v>-1.9829333333333325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10.025599999999999</v>
+      </c>
+      <c r="C14">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>-4.970133333333334</v>
+      </c>
+      <c r="E14">
+        <v>-1.9658666666666678</v>
+      </c>
+      <c r="G14">
+        <v>10.025599999999999</v>
+      </c>
+      <c r="I14">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="J14">
+        <v>-4.970133333333334</v>
+      </c>
+      <c r="K14">
+        <v>-1.9658666666666678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10.0512</v>
+      </c>
+      <c r="C15">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>-4.9402666666666661</v>
+      </c>
+      <c r="E15">
+        <v>-1.9317333333333335</v>
+      </c>
+      <c r="G15">
+        <v>10.0512</v>
+      </c>
+      <c r="I15">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>-4.9402666666666661</v>
+      </c>
+      <c r="K15">
+        <v>-1.9317333333333335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10.102399999999999</v>
+      </c>
+      <c r="C16">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="D16">
+        <v>-4.8805333333333332</v>
+      </c>
+      <c r="E16">
+        <v>-1.8634666666666673</v>
+      </c>
+      <c r="G16">
+        <v>10.102399999999999</v>
+      </c>
+      <c r="I16">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="J16">
+        <v>-4.8805333333333332</v>
+      </c>
+      <c r="K16">
+        <v>-1.8634666666666673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10.204800000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.1024</v>
+      </c>
+      <c r="D17">
+        <v>-4.7610666666666654</v>
+      </c>
+      <c r="E17">
+        <v>-1.7269333333333325</v>
+      </c>
+      <c r="G17">
+        <v>10.204800000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1024</v>
+      </c>
+      <c r="J17">
+        <v>-4.7610666666666654</v>
+      </c>
+      <c r="K17">
+        <v>-1.7269333333333325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10.409599999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="D18">
+        <v>-4.5221333333333336</v>
+      </c>
+      <c r="E18">
+        <v>-1.4538666666666678</v>
+      </c>
+      <c r="G18">
+        <v>10.409599999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="J18">
+        <v>-4.5221333333333336</v>
+      </c>
+      <c r="K18">
+        <v>-1.4538666666666678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>10.75005</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6">
+        <v>0.37502499999999983</v>
+      </c>
+      <c r="D19" s="6">
+        <v>-4.1249416666666665</v>
+      </c>
+      <c r="E19" s="6">
+        <v>-0.99993333333333334</v>
+      </c>
+      <c r="G19">
+        <v>10.8192</v>
+      </c>
+      <c r="I19">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="J19">
+        <v>-4.0442666666666662</v>
+      </c>
+      <c r="K19">
+        <v>-0.90773333333333306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10.8192</v>
+      </c>
+      <c r="C20">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="D20">
+        <v>-4.0442666666666662</v>
+      </c>
+      <c r="E20">
+        <v>-0.90773333333333306</v>
+      </c>
+      <c r="G20">
+        <v>11.125025000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.56251250000000019</v>
+      </c>
+      <c r="J20">
+        <v>-3.6874708333333324</v>
+      </c>
+      <c r="K20">
+        <v>-0.49996666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11.125025000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.56251250000000019</v>
+      </c>
+      <c r="D21">
+        <v>-3.6874708333333324</v>
+      </c>
+      <c r="E21">
+        <v>-0.49996666666666667</v>
+      </c>
+      <c r="G21">
+        <v>11.3125125</v>
+      </c>
+      <c r="I21">
+        <v>0.65625624999999999</v>
+      </c>
+      <c r="J21">
+        <v>-3.4687354166666666</v>
+      </c>
+      <c r="K21">
+        <v>-0.24998333333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11.3125125</v>
+      </c>
+      <c r="C22">
+        <v>0.65625624999999999</v>
+      </c>
+      <c r="D22">
+        <v>-3.4687354166666666</v>
+      </c>
+      <c r="E22">
+        <v>-0.24998333333333334</v>
+      </c>
+      <c r="G22">
+        <v>11.40625625</v>
+      </c>
+      <c r="I22">
+        <v>0.70312812499999977</v>
+      </c>
+      <c r="J22">
+        <v>-3.3593677083333335</v>
+      </c>
+      <c r="K22">
+        <v>-0.12499166666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11.40625625</v>
+      </c>
+      <c r="C23">
+        <v>0.70312812499999977</v>
+      </c>
+      <c r="D23">
+        <v>-3.3593677083333335</v>
+      </c>
+      <c r="E23">
+        <v>-0.12499166666666667</v>
+      </c>
+      <c r="G23">
+        <v>11.453128125000001</v>
+      </c>
+      <c r="I23">
+        <v>0.72656406250000016</v>
+      </c>
+      <c r="J23">
+        <v>-3.3046838541666661</v>
+      </c>
+      <c r="K23">
+        <v>-6.2495833333333334E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11.453128125000001</v>
+      </c>
+      <c r="C24">
+        <v>0.72656406250000016</v>
+      </c>
+      <c r="D24">
+        <v>-3.3046838541666661</v>
+      </c>
+      <c r="E24">
+        <v>-6.2495833333333334E-2</v>
+      </c>
+      <c r="G24">
+        <v>11.476564062500001</v>
+      </c>
+      <c r="I24">
+        <v>0.73828203125000036</v>
+      </c>
+      <c r="J24">
+        <v>-3.2773419270833326</v>
+      </c>
+      <c r="K24">
+        <v>-3.1247916666666667E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11.476564062500001</v>
+      </c>
+      <c r="C25">
+        <v>0.73828203125000036</v>
+      </c>
+      <c r="D25">
+        <v>-3.2773419270833326</v>
+      </c>
+      <c r="E25">
+        <v>-3.1247916666666667E-2</v>
+      </c>
+      <c r="G25">
+        <v>11.488282031250002</v>
+      </c>
+      <c r="I25">
+        <v>0.74414101562500046</v>
+      </c>
+      <c r="J25">
+        <v>-3.2636709635416654</v>
+      </c>
+      <c r="K25">
+        <v>-1.5623958333333333E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>11.488282031250002</v>
+      </c>
+      <c r="C26">
+        <v>0.74414101562500046</v>
+      </c>
+      <c r="D26">
+        <v>-3.2636709635416654</v>
+      </c>
+      <c r="E26">
+        <v>-1.5623958333333333E-2</v>
+      </c>
+      <c r="G26">
+        <v>11.494141015625001</v>
+      </c>
+      <c r="I26">
+        <v>0.74707050781250006</v>
+      </c>
+      <c r="J26">
+        <v>-3.2568354817708327</v>
+      </c>
+      <c r="K26">
+        <v>-7.8119791666666667E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>11.494141015625001</v>
+      </c>
+      <c r="C27">
+        <v>0.74707050781250006</v>
+      </c>
+      <c r="D27">
+        <v>-3.2568354817708327</v>
+      </c>
+      <c r="E27">
+        <v>-7.8119791666666667E-3</v>
+      </c>
+      <c r="G27">
+        <v>11.4970705078125</v>
+      </c>
+      <c r="I27">
+        <v>0.74853525390624986</v>
+      </c>
+      <c r="J27">
+        <v>-3.2534177408854168</v>
+      </c>
+      <c r="K27">
+        <v>-3.9059895833333334E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11.4970705078125</v>
+      </c>
+      <c r="C28">
+        <v>0.74853525390624986</v>
+      </c>
+      <c r="D28">
+        <v>-3.2534177408854168</v>
+      </c>
+      <c r="E28">
+        <v>-3.9059895833333334E-3</v>
+      </c>
+      <c r="G28">
+        <v>11.498535253906251</v>
+      </c>
+      <c r="I28">
+        <v>0.74926762695312521</v>
+      </c>
+      <c r="J28">
+        <v>-3.251708870442708</v>
+      </c>
+      <c r="K28">
+        <v>-1.9529947916666667E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11.498535253906251</v>
+      </c>
+      <c r="C29">
+        <v>0.74926762695312521</v>
+      </c>
+      <c r="D29">
+        <v>-3.251708870442708</v>
+      </c>
+      <c r="E29">
+        <v>-1.9529947916666667E-3</v>
+      </c>
+      <c r="G29">
+        <v>11.499267626953126</v>
+      </c>
+      <c r="I29">
+        <v>0.74963381347656244</v>
+      </c>
+      <c r="J29">
+        <v>-3.2508544352213544</v>
+      </c>
+      <c r="K29">
+        <v>-9.7649739583333334E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11.499267626953126</v>
+      </c>
+      <c r="C30">
+        <v>0.74963381347656244</v>
+      </c>
+      <c r="D30">
+        <v>-3.2508544352213544</v>
+      </c>
+      <c r="E30">
+        <v>-9.7649739583333334E-4</v>
+      </c>
+      <c r="G30">
+        <v>11.499633813476564</v>
+      </c>
+      <c r="I30">
+        <v>0.7498169067382815</v>
+      </c>
+      <c r="J30">
+        <v>-3.2504272176106763</v>
+      </c>
+      <c r="K30">
+        <v>-4.8824869791666667E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>11.499633813476564</v>
+      </c>
+      <c r="C31">
+        <v>0.7498169067382815</v>
+      </c>
+      <c r="D31">
+        <v>-3.2504272176106763</v>
+      </c>
+      <c r="E31">
+        <v>-4.8824869791666667E-4</v>
+      </c>
+      <c r="G31">
+        <v>11.499816906738282</v>
+      </c>
+      <c r="I31">
+        <v>0.74990845336914058</v>
+      </c>
+      <c r="J31">
+        <v>-3.2502136088053382</v>
+      </c>
+      <c r="K31">
+        <v>-2.4412434895833334E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>11.499816906738282</v>
+      </c>
+      <c r="C32">
+        <v>0.74990845336914058</v>
+      </c>
+      <c r="D32">
+        <v>-3.2502136088053382</v>
+      </c>
+      <c r="E32">
+        <v>-2.4412434895833334E-4</v>
+      </c>
+      <c r="G32">
+        <v>11.499908453369141</v>
+      </c>
+      <c r="I32">
+        <v>0.74995422668457012</v>
+      </c>
+      <c r="J32">
+        <v>-3.2501068044026695</v>
+      </c>
+      <c r="K32">
+        <v>-1.2206217447916667E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>11.499908453369141</v>
+      </c>
+      <c r="C33">
+        <v>0.74995422668457012</v>
+      </c>
+      <c r="D33">
+        <v>-3.2501068044026695</v>
+      </c>
+      <c r="E33">
+        <v>-1.2206217447916667E-4</v>
+      </c>
+      <c r="G33">
+        <v>11.49995422668457</v>
+      </c>
+      <c r="I33">
+        <v>0.7499771133422849</v>
+      </c>
+      <c r="J33">
+        <v>-3.2500534022013348</v>
+      </c>
+      <c r="K33">
+        <v>-6.1031087239583334E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>11.49995422668457</v>
+      </c>
+      <c r="C34">
+        <v>0.7499771133422849</v>
+      </c>
+      <c r="D34">
+        <v>-3.2500534022013348</v>
+      </c>
+      <c r="E34">
+        <v>-6.1031087239583334E-5</v>
+      </c>
+      <c r="G34">
+        <v>11.499962500000001</v>
+      </c>
+      <c r="I34">
+        <v>0.74998124999999993</v>
+      </c>
+      <c r="J34">
+        <v>-3.2500437500000001</v>
+      </c>
+      <c r="K34">
+        <v>-5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>11.499962500000001</v>
+      </c>
+      <c r="C35">
+        <v>0.74998124999999993</v>
+      </c>
+      <c r="D35">
+        <v>-3.2500437500000001</v>
+      </c>
+      <c r="E35">
+        <v>-5.0000000000000002E-5</v>
+      </c>
+      <c r="G35">
+        <v>11.5</v>
+      </c>
+      <c r="I35">
+        <v>0.75</v>
+      </c>
+      <c r="J35">
+        <v>-3.25</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>11.5</v>
+      </c>
+      <c r="C36">
+        <v>0.75</v>
+      </c>
+      <c r="D36">
+        <v>-3.25</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>11.500037499999999</v>
+      </c>
+      <c r="I36">
+        <v>0.75001874999999996</v>
+      </c>
+      <c r="J36">
+        <v>-3.2499562499999999</v>
+      </c>
+      <c r="K36">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>11.500037499999999</v>
+      </c>
+      <c r="C37">
+        <v>0.75001874999999996</v>
+      </c>
+      <c r="D37">
+        <v>-3.2499562499999999</v>
+      </c>
+      <c r="E37">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G37">
+        <v>11.500074999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.75003749999999969</v>
+      </c>
+      <c r="J37">
+        <v>-3.2499125000000006</v>
+      </c>
+      <c r="K37">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>11.500074999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.75003749999999969</v>
+      </c>
+      <c r="D38">
+        <v>-3.2499125000000006</v>
+      </c>
+      <c r="E38">
+        <v>1E-4</v>
+      </c>
+      <c r="G38">
+        <v>11.50015</v>
+      </c>
+      <c r="I38">
+        <v>0.75007500000000005</v>
+      </c>
+      <c r="J38">
+        <v>-3.2498249999999995</v>
+      </c>
+      <c r="K38">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>11.50015</v>
+      </c>
+      <c r="C39">
+        <v>0.75007500000000005</v>
+      </c>
+      <c r="D39">
+        <v>-3.2498249999999995</v>
+      </c>
+      <c r="E39">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G39">
+        <v>11.500299999999999</v>
+      </c>
+      <c r="I39">
+        <v>0.75014999999999987</v>
+      </c>
+      <c r="J39">
+        <v>-3.2496499999999999</v>
+      </c>
+      <c r="K39">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>11.500299999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.75014999999999987</v>
+      </c>
+      <c r="D40">
+        <v>-3.2496499999999999</v>
+      </c>
+      <c r="E40">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G40">
+        <v>11.500599999999999</v>
+      </c>
+      <c r="I40">
+        <v>0.75029999999999952</v>
+      </c>
+      <c r="J40">
+        <v>-3.2493000000000007</v>
+      </c>
+      <c r="K40">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>11.500599999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.75029999999999952</v>
+      </c>
+      <c r="D41">
+        <v>-3.2493000000000007</v>
+      </c>
+      <c r="E41">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G41">
+        <v>11.501199999999999</v>
+      </c>
+      <c r="I41">
+        <v>0.75059999999999971</v>
+      </c>
+      <c r="J41">
+        <v>-3.2486000000000006</v>
+      </c>
+      <c r="K41">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>11.501199999999999</v>
+      </c>
+      <c r="C42">
+        <v>0.75059999999999971</v>
+      </c>
+      <c r="D42">
+        <v>-3.2486000000000006</v>
+      </c>
+      <c r="E42">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G42">
+        <v>11.5024</v>
+      </c>
+      <c r="I42">
+        <v>0.75120000000000009</v>
+      </c>
+      <c r="J42">
+        <v>-3.2471999999999994</v>
+      </c>
+      <c r="K42">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>11.5024</v>
+      </c>
+      <c r="C43">
+        <v>0.75120000000000009</v>
+      </c>
+      <c r="D43">
+        <v>-3.2471999999999994</v>
+      </c>
+      <c r="E43">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="G43">
+        <v>11.504799999999999</v>
+      </c>
+      <c r="I43">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="J43">
+        <v>-3.2443999999999997</v>
+      </c>
+      <c r="K43">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>11.504799999999999</v>
+      </c>
+      <c r="C44">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="D44">
+        <v>-3.2443999999999997</v>
+      </c>
+      <c r="E44">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="G44">
+        <v>11.509599999999999</v>
+      </c>
+      <c r="I44">
+        <v>0.75479999999999969</v>
+      </c>
+      <c r="J44">
+        <v>-3.2388000000000003</v>
+      </c>
+      <c r="K44">
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>11.509599999999999</v>
+      </c>
+      <c r="C45">
+        <v>0.75479999999999969</v>
+      </c>
+      <c r="D45">
+        <v>-3.2388000000000003</v>
+      </c>
+      <c r="E45">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="G45">
+        <v>11.5192</v>
+      </c>
+      <c r="I45">
+        <v>0.75960000000000005</v>
+      </c>
+      <c r="J45">
+        <v>-3.2275999999999998</v>
+      </c>
+      <c r="K45">
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11.5192</v>
+      </c>
+      <c r="C46">
+        <v>0.75960000000000005</v>
+      </c>
+      <c r="D46">
+        <v>-3.2275999999999998</v>
+      </c>
+      <c r="E46">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="G46">
+        <v>11.538399999999999</v>
+      </c>
+      <c r="I46">
+        <v>0.76919999999999988</v>
+      </c>
+      <c r="J46">
+        <v>-3.2052</v>
+      </c>
+      <c r="K46">
+        <v>5.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>11.538399999999999</v>
+      </c>
+      <c r="C47">
+        <v>0.76919999999999988</v>
+      </c>
+      <c r="D47">
+        <v>-3.2052</v>
+      </c>
+      <c r="E47">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="G47">
+        <v>11.576799999999999</v>
+      </c>
+      <c r="I47">
+        <v>0.78839999999999955</v>
+      </c>
+      <c r="J47">
+        <v>-3.160400000000001</v>
+      </c>
+      <c r="K47">
+        <v>0.1024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>11.576799999999999</v>
+      </c>
+      <c r="C48">
+        <v>0.78839999999999955</v>
+      </c>
+      <c r="D48">
+        <v>-3.160400000000001</v>
+      </c>
+      <c r="E48">
+        <v>0.1024</v>
+      </c>
+      <c r="G48">
+        <v>11.653599999999999</v>
+      </c>
+      <c r="I48">
+        <v>0.82679999999999976</v>
+      </c>
+      <c r="J48">
+        <v>-3.0708000000000002</v>
+      </c>
+      <c r="K48">
+        <v>0.20480000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>11.653599999999999</v>
+      </c>
+      <c r="C49">
+        <v>0.82679999999999976</v>
+      </c>
+      <c r="D49">
+        <v>-3.0708000000000002</v>
+      </c>
+      <c r="E49">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="G49">
+        <v>11.8072</v>
+      </c>
+      <c r="I49">
+        <v>0.90360000000000018</v>
+      </c>
+      <c r="J49">
+        <v>-2.8915999999999995</v>
+      </c>
+      <c r="K49">
+        <v>0.40960000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>11.8072</v>
+      </c>
+      <c r="C50">
+        <v>0.90360000000000018</v>
+      </c>
+      <c r="D50">
+        <v>-2.8915999999999995</v>
+      </c>
+      <c r="E50">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="G50">
+        <v>12.1144</v>
+      </c>
+      <c r="I50">
+        <v>1.0572000000000001</v>
+      </c>
+      <c r="J50">
+        <v>-2.5331999999999995</v>
+      </c>
+      <c r="K50">
+        <v>0.81920000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>12.1144</v>
+      </c>
+      <c r="C51">
+        <v>1.0572000000000001</v>
+      </c>
+      <c r="D51">
+        <v>-2.5331999999999995</v>
+      </c>
+      <c r="E51">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="G51">
+        <v>12.7288</v>
+      </c>
+      <c r="I51">
+        <v>1.3643999999999998</v>
+      </c>
+      <c r="J51">
+        <v>-1.8163999999999996</v>
+      </c>
+      <c r="K51">
+        <v>1.6384000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12.7288</v>
+      </c>
+      <c r="C52">
+        <v>1.3643999999999998</v>
+      </c>
+      <c r="D52">
+        <v>-1.8163999999999996</v>
+      </c>
+      <c r="E52">
+        <v>1.6384000000000001</v>
+      </c>
+      <c r="G52">
+        <v>12.892875892857143</v>
+      </c>
+      <c r="I52">
+        <v>1.4464379464285715</v>
+      </c>
+      <c r="J52">
+        <v>-1.6249781249999999</v>
+      </c>
+      <c r="K52">
+        <v>1.857167857142858</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>12.892875892857143</v>
+      </c>
+      <c r="C53">
+        <v>1.4464379464285715</v>
+      </c>
+      <c r="D53">
+        <v>-1.6249781249999999</v>
+      </c>
+      <c r="E53">
+        <v>1.857167857142858</v>
+      </c>
+      <c r="G53">
+        <v>13.589295089285713</v>
+      </c>
+      <c r="I53">
+        <v>1.7946475446428565</v>
+      </c>
+      <c r="J53">
+        <v>-0.81248906249999997</v>
+      </c>
+      <c r="K53">
+        <v>2.7857267857142838</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>13.589295089285713</v>
+      </c>
+      <c r="C54">
+        <v>1.7946475446428565</v>
+      </c>
+      <c r="D54">
+        <v>-0.81248906249999997</v>
+      </c>
+      <c r="E54">
+        <v>2.7857267857142838</v>
+      </c>
+      <c r="G54">
+        <v>13.937504687499999</v>
+      </c>
+      <c r="I54">
+        <v>1.9687523437499994</v>
+      </c>
+      <c r="J54">
+        <v>-0.40624453124999998</v>
+      </c>
+      <c r="K54">
+        <v>3.2500062499999989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>13.937504687499999</v>
+      </c>
+      <c r="C55">
+        <v>1.9687523437499994</v>
+      </c>
+      <c r="D55">
+        <v>-0.40624453124999998</v>
+      </c>
+      <c r="E55">
+        <v>3.2500062499999989</v>
+      </c>
+      <c r="G55">
+        <v>14.111609486607142</v>
+      </c>
+      <c r="I55">
+        <v>2.0558047433035709</v>
+      </c>
+      <c r="J55">
+        <v>-0.20312226562499999</v>
+      </c>
+      <c r="K55">
+        <v>3.4821459821428555</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>13.957599999999999</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6">
+        <v>1.9787999999999997</v>
+      </c>
+      <c r="D56" s="6">
+        <v>-0.38280000000000003</v>
+      </c>
+      <c r="E56" s="6">
+        <v>3.2768000000000002</v>
+      </c>
+      <c r="G56">
+        <v>14.198661886160714</v>
+      </c>
+      <c r="I56">
+        <v>2.0993309430803571</v>
+      </c>
+      <c r="J56">
+        <v>-0.1015611328125</v>
+      </c>
+      <c r="K56">
+        <v>3.5982158482142852</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>14.111609486607142</v>
+      </c>
+      <c r="C57">
+        <v>2.0558047433035709</v>
+      </c>
+      <c r="D57">
+        <v>-0.20312226562499999</v>
+      </c>
+      <c r="E57">
+        <v>3.4821459821428555</v>
+      </c>
+      <c r="G57">
+        <v>14.242188085937499</v>
+      </c>
+      <c r="I57">
+        <v>2.1210940429687497</v>
+      </c>
+      <c r="J57">
+        <v>-5.0780566406249998E-2</v>
+      </c>
+      <c r="K57">
+        <v>3.6562507812499989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>14.198661886160714</v>
+      </c>
+      <c r="C58">
+        <v>2.0993309430803571</v>
+      </c>
+      <c r="D58">
+        <v>-0.1015611328125</v>
+      </c>
+      <c r="E58">
+        <v>3.5982158482142852</v>
+      </c>
+      <c r="G58">
+        <v>14.263951185825892</v>
+      </c>
+      <c r="I58">
+        <v>2.131975592912946</v>
+      </c>
+      <c r="J58">
+        <v>-2.5390283203124999E-2</v>
+      </c>
+      <c r="K58">
+        <v>3.6852682477678562</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>14.242188085937499</v>
+      </c>
+      <c r="C59">
+        <v>2.1210940429687497</v>
+      </c>
+      <c r="D59">
+        <v>-5.0780566406249998E-2</v>
+      </c>
+      <c r="E59">
+        <v>3.6562507812499989</v>
+      </c>
+      <c r="G59">
+        <v>14.274832735770088</v>
+      </c>
+      <c r="I59">
+        <v>2.1374163678850442</v>
+      </c>
+      <c r="J59">
+        <v>-1.26951416015625E-2</v>
+      </c>
+      <c r="K59">
+        <v>3.6997769810267847</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>14.263951185825892</v>
+      </c>
+      <c r="C60">
+        <v>2.131975592912946</v>
+      </c>
+      <c r="D60">
+        <v>-2.5390283203124999E-2</v>
+      </c>
+      <c r="E60">
+        <v>3.6852682477678562</v>
+      </c>
+      <c r="G60">
+        <v>14.2802735107422</v>
+      </c>
+      <c r="I60">
+        <v>2.1401367553710999</v>
+      </c>
+      <c r="J60">
+        <v>-6.3475708007812498E-3</v>
+      </c>
+      <c r="K60">
+        <v>3.7070313476562662</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>14.274832735770088</v>
+      </c>
+      <c r="C61">
+        <v>2.1374163678850442</v>
+      </c>
+      <c r="D61">
+        <v>-1.26951416015625E-2</v>
+      </c>
+      <c r="E61">
+        <v>3.6997769810267847</v>
+      </c>
+      <c r="G61">
+        <v>14.282993898228236</v>
+      </c>
+      <c r="I61">
+        <v>2.141496949114118</v>
+      </c>
+      <c r="J61">
+        <v>-3.1737854003906249E-3</v>
+      </c>
+      <c r="K61">
+        <v>3.7106585309709819</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>14.2802735107422</v>
+      </c>
+      <c r="C62">
+        <v>2.1401367553710999</v>
+      </c>
+      <c r="D62">
+        <v>-6.3475708007812498E-3</v>
+      </c>
+      <c r="E62">
+        <v>3.7070313476562662</v>
+      </c>
+      <c r="G62">
+        <v>14.284354091971259</v>
+      </c>
+      <c r="I62">
+        <v>2.1421770459856297</v>
+      </c>
+      <c r="J62">
+        <v>-1.5868927001953124E-3</v>
+      </c>
+      <c r="K62">
+        <v>3.7124721226283457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>14.282993898228236</v>
+      </c>
+      <c r="C63">
+        <v>2.141496949114118</v>
+      </c>
+      <c r="D63">
+        <v>-3.1737854003906249E-3</v>
+      </c>
+      <c r="E63">
+        <v>3.7106585309709819</v>
+      </c>
+      <c r="G63">
+        <v>14.285034188842772</v>
+      </c>
+      <c r="I63">
+        <v>2.142517094421386</v>
+      </c>
+      <c r="J63">
+        <v>-7.9344635009765622E-4</v>
+      </c>
+      <c r="K63">
+        <v>3.7133789184570296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>14.284354091971259</v>
+      </c>
+      <c r="C64">
+        <v>2.1421770459856297</v>
+      </c>
+      <c r="D64">
+        <v>-1.5868927001953124E-3</v>
+      </c>
+      <c r="E64">
+        <v>3.7124721226283457</v>
+      </c>
+      <c r="G64">
+        <v>14.285374237278528</v>
+      </c>
+      <c r="I64">
+        <v>2.1426871186392642</v>
+      </c>
+      <c r="J64">
+        <v>-3.9672317504882811E-4</v>
+      </c>
+      <c r="K64">
+        <v>3.7138323163713709</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>14.285034188842772</v>
+      </c>
+      <c r="C65">
+        <v>2.142517094421386</v>
+      </c>
+      <c r="D65">
+        <v>-7.9344635009765622E-4</v>
+      </c>
+      <c r="E65">
+        <v>3.7133789184570296</v>
+      </c>
+      <c r="G65">
+        <v>14.285544261496407</v>
+      </c>
+      <c r="I65">
+        <v>2.1427721307482033</v>
+      </c>
+      <c r="J65">
+        <v>-1.9836158752441406E-4</v>
+      </c>
+      <c r="K65">
+        <v>3.7140590153285418</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>14.285374237278528</v>
+      </c>
+      <c r="C66">
+        <v>2.1426871186392642</v>
+      </c>
+      <c r="D66">
+        <v>-3.9672317504882811E-4</v>
+      </c>
+      <c r="E66">
+        <v>3.7138323163713709</v>
+      </c>
+      <c r="G66">
+        <v>14.285629273605347</v>
+      </c>
+      <c r="I66">
+        <v>2.1428146368026733</v>
+      </c>
+      <c r="J66">
+        <v>-9.9180793762207028E-5</v>
+      </c>
+      <c r="K66">
+        <v>3.714172364807129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>14.285544261496407</v>
+      </c>
+      <c r="C67">
+        <v>2.1427721307482033</v>
+      </c>
+      <c r="D67">
+        <v>-1.9836158752441406E-4</v>
+      </c>
+      <c r="E67">
+        <v>3.7140590153285418</v>
+      </c>
+      <c r="G67">
+        <v>14.285671428571428</v>
+      </c>
+      <c r="I67">
+        <v>2.142835714285714</v>
+      </c>
+      <c r="J67">
+        <v>-5.0000000000000002E-5</v>
+      </c>
+      <c r="K67">
+        <v>3.7142285714285705</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>14.285629273605347</v>
+      </c>
+      <c r="C68">
+        <v>2.1428146368026733</v>
+      </c>
+      <c r="D68">
+        <v>-9.9180793762207028E-5</v>
+      </c>
+      <c r="E68">
+        <v>3.714172364807129</v>
+      </c>
+      <c r="G68">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="I68">
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>3.7142857142857135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>14.285671428571428</v>
+      </c>
+      <c r="C69">
+        <v>2.142835714285714</v>
+      </c>
+      <c r="D69">
+        <v>-5.0000000000000002E-5</v>
+      </c>
+      <c r="E69">
+        <v>3.7142285714285705</v>
+      </c>
+      <c r="G69">
+        <v>14.285757142857141</v>
+      </c>
+      <c r="I69">
+        <v>2.1428785714285712</v>
+      </c>
+      <c r="J69">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K69">
+        <v>3.7143428571428565</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="C70">
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>3.7142857142857135</v>
+      </c>
+      <c r="G70">
+        <v>14.285799999999998</v>
+      </c>
+      <c r="I70">
+        <v>2.1428999999999996</v>
+      </c>
+      <c r="J70">
+        <v>1E-4</v>
+      </c>
+      <c r="K70">
+        <v>3.714399999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>14.285757142857141</v>
+      </c>
+      <c r="C71">
+        <v>2.1428785714285712</v>
+      </c>
+      <c r="D71">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E71">
+        <v>3.7143428571428565</v>
+      </c>
+      <c r="G71">
+        <v>14.285885714285714</v>
+      </c>
+      <c r="I71">
+        <v>2.1429428571428573</v>
+      </c>
+      <c r="J71">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K71">
+        <v>3.7145142857142859</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>14.285799999999998</v>
+      </c>
+      <c r="C72">
+        <v>2.1428999999999996</v>
+      </c>
+      <c r="D72">
+        <v>1E-4</v>
+      </c>
+      <c r="E72">
+        <v>3.714399999999999</v>
+      </c>
+      <c r="G72">
+        <v>14.286057142857141</v>
+      </c>
+      <c r="I72">
+        <v>2.1430285714285708</v>
+      </c>
+      <c r="J72">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K72">
+        <v>3.7147428571428556</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>14.285885714285714</v>
+      </c>
+      <c r="C73">
+        <v>2.1429428571428573</v>
+      </c>
+      <c r="D73">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E73">
+        <v>3.7145142857142859</v>
+      </c>
+      <c r="G73">
+        <v>14.286399999999999</v>
+      </c>
+      <c r="I73">
+        <v>2.1431999999999998</v>
+      </c>
+      <c r="J73">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="K73">
+        <v>3.7151999999999994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>14.286057142857141</v>
+      </c>
+      <c r="C74">
+        <v>2.1430285714285708</v>
+      </c>
+      <c r="D74">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E74">
+        <v>3.7147428571428556</v>
+      </c>
+      <c r="G74">
+        <v>14.287085714285713</v>
+      </c>
+      <c r="I74">
+        <v>2.1435428571428568</v>
+      </c>
+      <c r="J74">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K74">
+        <v>3.7161142857142848</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>14.286399999999999</v>
+      </c>
+      <c r="C75">
+        <v>2.1431999999999998</v>
+      </c>
+      <c r="D75">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E75">
+        <v>3.7151999999999994</v>
+      </c>
+      <c r="G75">
+        <v>14.288457142857142</v>
+      </c>
+      <c r="I75">
+        <v>2.1442285714285716</v>
+      </c>
+      <c r="J75">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="K75">
+        <v>3.7179428571428574</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>14.287085714285713</v>
+      </c>
+      <c r="C76">
+        <v>2.1435428571428568</v>
+      </c>
+      <c r="D76">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E76">
+        <v>3.7161142857142848</v>
+      </c>
+      <c r="G76">
+        <v>14.291199999999998</v>
+      </c>
+      <c r="I76">
+        <v>2.1455999999999995</v>
+      </c>
+      <c r="J76">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="K76">
+        <v>3.7215999999999987</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>14.288457142857142</v>
+      </c>
+      <c r="C77">
+        <v>2.1442285714285716</v>
+      </c>
+      <c r="D77">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="E77">
+        <v>3.7179428571428574</v>
+      </c>
+      <c r="G77">
+        <v>14.296685714285713</v>
+      </c>
+      <c r="I77">
+        <v>2.1483428571428571</v>
+      </c>
+      <c r="J77">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="K77">
+        <v>3.7289142857142856</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>14.291199999999998</v>
+      </c>
+      <c r="C78">
+        <v>2.1455999999999995</v>
+      </c>
+      <c r="D78">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="E78">
+        <v>3.7215999999999987</v>
+      </c>
+      <c r="G78">
+        <v>14.307657142857142</v>
+      </c>
+      <c r="I78">
+        <v>2.1538285714285714</v>
+      </c>
+      <c r="J78">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="K78">
+        <v>3.7435428571428573</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>14.296685714285713</v>
+      </c>
+      <c r="C79">
+        <v>2.1483428571428571</v>
+      </c>
+      <c r="D79">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E79">
+        <v>3.7289142857142856</v>
+      </c>
+      <c r="G79">
+        <v>14.329599999999999</v>
+      </c>
+      <c r="I79">
+        <v>2.1648000000000001</v>
+      </c>
+      <c r="J79">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="K79">
+        <v>3.7728000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>14.307657142857142</v>
+      </c>
+      <c r="C80">
+        <v>2.1538285714285714</v>
+      </c>
+      <c r="D80">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="E80">
+        <v>3.7435428571428573</v>
+      </c>
+      <c r="G80">
+        <v>14.373485714285714</v>
+      </c>
+      <c r="I80">
+        <v>2.1867428571428573</v>
+      </c>
+      <c r="J80">
+        <v>0.1024</v>
+      </c>
+      <c r="K80">
+        <v>3.8313142857142863</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>14.329599999999999</v>
+      </c>
+      <c r="C81">
+        <v>2.1648000000000001</v>
+      </c>
+      <c r="D81">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="E81">
+        <v>3.7728000000000002</v>
+      </c>
+      <c r="G81">
+        <v>14.461257142857141</v>
+      </c>
+      <c r="I81">
+        <v>2.230628571428571</v>
+      </c>
+      <c r="J81">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="K81">
+        <v>3.9483428571428556</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>14.373485714285714</v>
+      </c>
+      <c r="C82">
+        <v>2.1867428571428573</v>
+      </c>
+      <c r="D82">
+        <v>0.1024</v>
+      </c>
+      <c r="E82">
+        <v>3.8313142857142863</v>
+      </c>
+      <c r="G82">
+        <v>14.636799999999999</v>
+      </c>
+      <c r="I82">
+        <v>2.3184</v>
+      </c>
+      <c r="J82">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="K82">
+        <v>4.1823999999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>14.461257142857141</v>
+      </c>
+      <c r="C83">
+        <v>2.230628571428571</v>
+      </c>
+      <c r="D83">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="E83">
+        <v>3.9483428571428556</v>
+      </c>
+      <c r="G83">
+        <v>14.987885714285714</v>
+      </c>
+      <c r="I83">
+        <v>2.4939428571428572</v>
+      </c>
+      <c r="J83">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="K83">
+        <v>4.6505142857142854</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>14.636799999999999</v>
+      </c>
+      <c r="C84">
+        <v>2.3184</v>
+      </c>
+      <c r="D84">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="E84">
+        <v>4.1823999999999995</v>
+      </c>
+      <c r="G84">
+        <v>15.690057142857142</v>
+      </c>
+      <c r="I84">
+        <v>2.8450285714285712</v>
+      </c>
+      <c r="J84">
+        <v>1.6384000000000001</v>
+      </c>
+      <c r="K84">
+        <v>5.5867428571428572</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>14.987885714285714</v>
+      </c>
+      <c r="C85">
+        <v>2.4939428571428572</v>
+      </c>
+      <c r="D85">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="E85">
+        <v>4.6505142857142854</v>
+      </c>
+      <c r="G85" s="1">
+        <v>16</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1">
+        <v>3</v>
+      </c>
+      <c r="J85" s="1">
+        <v>2</v>
+      </c>
+      <c r="K85" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>15.690057142857142</v>
+      </c>
+      <c r="C86">
+        <v>2.8450285714285712</v>
+      </c>
+      <c r="D86">
+        <v>1.6384000000000001</v>
+      </c>
+      <c r="E86">
+        <v>5.5867428571428572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>16</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>